--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220502_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220502_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="265">
   <si>
     <t>사이트</t>
   </si>
@@ -706,6 +706,9 @@
     <t>슬기로운 의사생활 OST Part 11 (tvN 목요드라마)</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>YG</t>
   </si>
   <si>
@@ -736,9 +739,6 @@
     <t>기타</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>꿈의엔진</t>
   </si>
   <si>
@@ -790,6 +790,9 @@
     <t>매직스트로베리 사운드</t>
   </si>
   <si>
+    <t>마크툽컴퍼니</t>
+  </si>
+  <si>
     <t>예스아이엠엔터테인먼트</t>
   </si>
   <si>
@@ -803,6 +806,9 @@
   </si>
   <si>
     <t>BRAVE</t>
+  </si>
+  <si>
+    <t>비스터스</t>
   </si>
 </sst>
 </file>
@@ -1211,6 +1217,12 @@
       <c r="F2" t="s">
         <v>172</v>
       </c>
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1232,10 +1244,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1258,10 +1270,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1284,10 +1296,10 @@
         <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1310,10 +1322,10 @@
         <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1336,10 +1348,10 @@
         <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1362,10 +1374,10 @@
         <v>176</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1388,10 +1400,10 @@
         <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1414,10 +1426,10 @@
         <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1440,10 +1452,10 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1466,10 +1478,10 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1492,10 +1504,10 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1518,10 +1530,10 @@
         <v>179</v>
       </c>
       <c r="G14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1544,10 +1556,10 @@
         <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1570,10 +1582,10 @@
         <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1596,10 +1608,10 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1625,7 +1637,7 @@
         <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1648,10 +1660,10 @@
         <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1673,6 +1685,12 @@
       <c r="F20" t="s">
         <v>172</v>
       </c>
+      <c r="G20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
@@ -1697,7 +1715,7 @@
         <v>242</v>
       </c>
       <c r="H21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1720,10 +1738,10 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1746,10 +1764,10 @@
         <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1772,10 +1790,10 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1801,7 +1819,7 @@
         <v>243</v>
       </c>
       <c r="H25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1823,6 +1841,12 @@
       <c r="F26" t="s">
         <v>172</v>
       </c>
+      <c r="G26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -1844,10 +1868,10 @@
         <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1870,10 +1894,10 @@
         <v>185</v>
       </c>
       <c r="G28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1896,10 +1920,10 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1925,7 +1949,7 @@
         <v>244</v>
       </c>
       <c r="H30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1948,10 +1972,10 @@
         <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1974,10 +1998,10 @@
         <v>186</v>
       </c>
       <c r="G32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2003,7 +2027,7 @@
         <v>245</v>
       </c>
       <c r="H33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2029,7 +2053,7 @@
         <v>243</v>
       </c>
       <c r="H34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2055,7 +2079,7 @@
         <v>246</v>
       </c>
       <c r="H35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2081,7 +2105,7 @@
         <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2107,7 +2131,7 @@
         <v>248</v>
       </c>
       <c r="H37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2133,7 +2157,7 @@
         <v>249</v>
       </c>
       <c r="H38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2159,7 +2183,7 @@
         <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2185,7 +2209,7 @@
         <v>244</v>
       </c>
       <c r="H40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2211,7 +2235,7 @@
         <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2260,10 +2284,10 @@
         <v>194</v>
       </c>
       <c r="G43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2286,10 +2310,10 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2341,7 +2365,7 @@
         <v>252</v>
       </c>
       <c r="H46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2363,6 +2387,12 @@
       <c r="F47" t="s">
         <v>172</v>
       </c>
+      <c r="G47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
@@ -2387,7 +2417,7 @@
         <v>243</v>
       </c>
       <c r="H48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2410,10 +2440,10 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2439,7 +2469,7 @@
         <v>252</v>
       </c>
       <c r="H50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2462,10 +2492,10 @@
         <v>196</v>
       </c>
       <c r="G51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2491,7 +2521,7 @@
         <v>253</v>
       </c>
       <c r="H52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2517,7 +2547,7 @@
         <v>244</v>
       </c>
       <c r="H53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2540,10 +2570,10 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2569,7 +2599,7 @@
         <v>254</v>
       </c>
       <c r="H55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2595,7 +2625,7 @@
         <v>252</v>
       </c>
       <c r="H56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2621,7 +2651,7 @@
         <v>255</v>
       </c>
       <c r="H57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2647,7 +2677,7 @@
         <v>244</v>
       </c>
       <c r="H58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2673,7 +2703,7 @@
         <v>256</v>
       </c>
       <c r="H59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2696,10 +2726,10 @@
         <v>202</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2725,7 +2755,7 @@
         <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2748,10 +2778,10 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2777,7 +2807,7 @@
         <v>257</v>
       </c>
       <c r="H63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2800,10 +2830,10 @@
         <v>204</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2829,7 +2859,7 @@
         <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2855,7 +2885,7 @@
         <v>243</v>
       </c>
       <c r="H66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2878,10 +2908,10 @@
         <v>207</v>
       </c>
       <c r="G67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2929,6 +2959,12 @@
       <c r="F69" t="s">
         <v>172</v>
       </c>
+      <c r="G69" t="s">
+        <v>230</v>
+      </c>
+      <c r="H69" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
@@ -2950,10 +2986,10 @@
         <v>209</v>
       </c>
       <c r="G70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2979,7 +3015,7 @@
         <v>253</v>
       </c>
       <c r="H71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3002,10 +3038,10 @@
         <v>211</v>
       </c>
       <c r="G72" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3027,6 +3063,12 @@
       <c r="F73" t="s">
         <v>172</v>
       </c>
+      <c r="G73" t="s">
+        <v>230</v>
+      </c>
+      <c r="H73" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
@@ -3051,7 +3093,7 @@
         <v>244</v>
       </c>
       <c r="H74" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3073,6 +3115,12 @@
       <c r="F75" t="s">
         <v>213</v>
       </c>
+      <c r="G75" t="s">
+        <v>258</v>
+      </c>
+      <c r="H75" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -3094,10 +3142,10 @@
         <v>214</v>
       </c>
       <c r="G76" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3120,10 +3168,10 @@
         <v>215</v>
       </c>
       <c r="G77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3146,10 +3194,10 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3172,10 +3220,10 @@
         <v>216</v>
       </c>
       <c r="G79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3197,6 +3245,12 @@
       <c r="F80" t="s">
         <v>88</v>
       </c>
+      <c r="G80" t="s">
+        <v>243</v>
+      </c>
+      <c r="H80" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
@@ -3221,7 +3275,7 @@
         <v>242</v>
       </c>
       <c r="H81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3247,7 +3301,7 @@
         <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3270,10 +3324,10 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3299,7 +3353,7 @@
         <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3322,10 +3376,10 @@
         <v>220</v>
       </c>
       <c r="G85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3351,7 +3405,7 @@
         <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3377,7 +3431,7 @@
         <v>241</v>
       </c>
       <c r="H87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3403,7 +3457,7 @@
         <v>243</v>
       </c>
       <c r="H88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3425,6 +3479,12 @@
       <c r="F89" t="s">
         <v>223</v>
       </c>
+      <c r="G89" t="s">
+        <v>258</v>
+      </c>
+      <c r="H89" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
@@ -3449,7 +3509,7 @@
         <v>243</v>
       </c>
       <c r="H90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3475,7 +3535,7 @@
         <v>252</v>
       </c>
       <c r="H91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3498,10 +3558,10 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3524,10 +3584,10 @@
         <v>224</v>
       </c>
       <c r="G93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3550,10 +3610,10 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3579,7 +3639,7 @@
         <v>257</v>
       </c>
       <c r="H95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3605,7 +3665,7 @@
         <v>250</v>
       </c>
       <c r="H96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3631,7 +3691,7 @@
         <v>244</v>
       </c>
       <c r="H97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3654,10 +3714,10 @@
         <v>226</v>
       </c>
       <c r="G98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3680,10 +3740,10 @@
         <v>227</v>
       </c>
       <c r="G99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3706,10 +3766,10 @@
         <v>228</v>
       </c>
       <c r="G100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3730,6 +3790,12 @@
       </c>
       <c r="F101" t="s">
         <v>229</v>
+      </c>
+      <c r="G101" t="s">
+        <v>264</v>
+      </c>
+      <c r="H101" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220502_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220502_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-02</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220502_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220502_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="264">
   <si>
     <t>사이트</t>
   </si>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>빅히트</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>neuron music</t>
@@ -2362,7 +2359,7 @@
         <v>195</v>
       </c>
       <c r="G46" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H46" t="s">
         <v>240</v>
@@ -2466,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H50" t="s">
         <v>240</v>
@@ -2518,7 +2515,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H52" t="s">
         <v>240</v>
@@ -2596,7 +2593,7 @@
         <v>198</v>
       </c>
       <c r="G55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H55" t="s">
         <v>240</v>
@@ -2622,7 +2619,7 @@
         <v>199</v>
       </c>
       <c r="G56" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H56" t="s">
         <v>240</v>
@@ -2648,7 +2645,7 @@
         <v>200</v>
       </c>
       <c r="G57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H57" t="s">
         <v>240</v>
@@ -2700,7 +2697,7 @@
         <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H59" t="s">
         <v>240</v>
@@ -2804,7 +2801,7 @@
         <v>203</v>
       </c>
       <c r="G63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H63" t="s">
         <v>240</v>
@@ -3012,7 +3009,7 @@
         <v>210</v>
       </c>
       <c r="G71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H71" t="s">
         <v>240</v>
@@ -3116,7 +3113,7 @@
         <v>213</v>
       </c>
       <c r="G75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H75" t="s">
         <v>240</v>
@@ -3142,7 +3139,7 @@
         <v>214</v>
       </c>
       <c r="G76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H76" t="s">
         <v>240</v>
@@ -3194,7 +3191,7 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H78" t="s">
         <v>240</v>
@@ -3350,7 +3347,7 @@
         <v>219</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H84" t="s">
         <v>240</v>
@@ -3376,7 +3373,7 @@
         <v>220</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H85" t="s">
         <v>240</v>
@@ -3480,7 +3477,7 @@
         <v>223</v>
       </c>
       <c r="G89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H89" t="s">
         <v>240</v>
@@ -3532,7 +3529,7 @@
         <v>194</v>
       </c>
       <c r="G91" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H91" t="s">
         <v>240</v>
@@ -3558,7 +3555,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H92" t="s">
         <v>240</v>
@@ -3610,7 +3607,7 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H94" t="s">
         <v>240</v>
@@ -3636,7 +3633,7 @@
         <v>225</v>
       </c>
       <c r="G95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H95" t="s">
         <v>240</v>
@@ -3766,7 +3763,7 @@
         <v>228</v>
       </c>
       <c r="G100" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H100" t="s">
         <v>240</v>
@@ -3792,7 +3789,7 @@
         <v>229</v>
       </c>
       <c r="G101" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H101" t="s">
         <v>240</v>
